--- a/LedLight.xlsx
+++ b/LedLight.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuhiro/Documents/source/openframeworks/of_v0.10.0_osx_release/apps/myApps/SAO_Flash/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuhiro/Documents/source/openframeworks/of_v0.10.0_osx_release/apps/myApps/XBEffect/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3200" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="3020" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
+    <sheet name="全灯" sheetId="2" r:id="rId2"/>
+    <sheet name="Back" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="16">
-  <si>
-    <t>static LED_LIGHT LedLight[] = {</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="20">
   <si>
     <t>//</t>
     <phoneticPr fontId="1"/>
@@ -89,7 +87,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>static const int NUM_LEDS = sizeof(LedLight) / sizeof(LedLight[0]);</t>
+    <t>LED_LIGHT Light_Dynamic[] = {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_DYNAMIC = sizeof(Light_Dynamic) / sizeof(Light_Dynamic[0]);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT Light_Climax[] = {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT Light_Back[] = {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_BACK = sizeof(Light_Back) / sizeof(Light_Back[0]);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_CLIMAX = sizeof(Light_Climax) / sizeof(Light_Climax[0]);</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -413,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -437,59 +455,59 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <f>G3+1</f>
@@ -498,76 +516,76 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L22" si="0">G4+1</f>
+        <f t="shared" ref="L4:L12" si="0">G4+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -576,37 +594,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -615,37 +633,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -654,37 +672,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -693,37 +711,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -732,37 +750,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -771,37 +789,37 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -810,37 +828,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -849,402 +867,526 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="0">G3+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L7" si="0">G3+1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>48</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/LedLight.xlsx
+++ b/LedLight.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3020" yWindow="1180" windowWidth="33180" windowHeight="22200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="30">
   <si>
     <t>//</t>
     <phoneticPr fontId="1"/>
@@ -87,27 +87,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>const int NUM_LIGHTS_DYNAMIC = sizeof(Light_Dynamic) / sizeof(Light_Dynamic[0]);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT Light_Climax[] = {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT Light_Back[] = {</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_BACK = sizeof(Light_Back) / sizeof(Light_Back[0]);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_CLIMAX = sizeof(Light_Climax) / sizeof(Light_Climax[0]);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>LED_LIGHT Light_Dynamic[] = {</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>const int NUM_LIGHTS_DYNAMIC = sizeof(Light_Dynamic) / sizeof(Light_Dynamic[0]);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED_LIGHT Light_Climax[] = {</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED_LIGHT Light_Back[] = {</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>const int NUM_LIGHTS_BACK = sizeof(Light_Back) / sizeof(Light_Back[0]);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>const int NUM_LIGHTS_CLIMAX = sizeof(Light_Climax) / sizeof(Light_Climax[0]);</t>
+    <t>LED_LIGHT* Light_Dynamic_Eye = &amp;Light_Dynamic[0];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT* Light_Dynamic_FaceUp = &amp;Light_Dynamic[1];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT* Light_Dynamic_FaceLow = &amp;Light_Dynamic[2];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT* Light_Dynamic_ArmUp = &amp;Light_Dynamic[3];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED_LIGHT* Light_Dynamic_ArmLow = &amp;Light_Dynamic[4];</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_EYE = 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_FACE_UP = 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_FACE_LOW = 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_ARM_UP = 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>const int NUM_LIGHTS_ARM_LOW = 1;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -455,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -872,7 +912,57 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -885,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -907,7 +997,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1129,7 +1219,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1254,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1386,7 +1476,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
